--- a/medicine/Enfance/Tom_et_Hester/Tom_et_Hester.xlsx
+++ b/medicine/Enfance/Tom_et_Hester/Tom_et_Hester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tom et Hester (titre original : Mortal Engines Quartet) est une série de science-fiction écrite par l'écrivain britannique Philip Reeve et parue de 2001 à 2006.
@@ -514,17 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série Tom et Hester
-Mécaniques fatales, Hachette Jeunesse, 2003 ((en) Mortal Engines, 2001)Réédition, Gallimard Jeunesse, coll. « Folio Junior », 2007
+          <t>Série Tom et Hester</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mécaniques fatales, Hachette Jeunesse, 2003 ((en) Mortal Engines, 2001)Réédition, Gallimard Jeunesse, coll. « Folio Junior », 2007
 L'Or du prédateur, Gallimard Jeunesse, coll. « Folio Junior », 2007 ((en) Predator's Gold, 2003)
 Machinations infernales, Gallimard Jeunesse, coll. « Folio Junior », 2009 ((en) Infernal Devices, 2005)
 Plaine obscure, Gallimard Jeunesse, coll. « Folio Junior », 2010 ((en) A Darkling Plain, 2006)
 (en) Traction City (en), 2011Roman court, préquelle à la série
-(en) Night Flights, 2018Recueil de trois courtes histoires sur les aventures d'Anna Fang, préquelle à la série
-Série Fever Crumb
-(en) Fever Crumb (en), 2009
-(en) A Web of Air (en), 2010
-(en) Scrivener's Moon (en), 2011</t>
+(en) Night Flights, 2018Recueil de trois courtes histoires sur les aventures d'Anna Fang, préquelle à la série</t>
         </is>
       </c>
     </row>
@@ -549,10 +562,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Univers Tom et Hester</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Fever Crumb</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Fever Crumb (en), 2009
+(en) A Web of Air (en), 2010
+(en) Scrivener's Moon (en), 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tom_et_Hester</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom_et_Hester</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
